--- a/uploads/Importproduct.xlsx
+++ b/uploads/Importproduct.xlsx
@@ -16,44 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>sno</t>
   </si>
   <si>
-    <t>Select Item</t>
-  </si>
-  <si>
-    <t>Item Name</t>
-  </si>
-  <si>
-    <t>Item Code</t>
-  </si>
-  <si>
-    <t>Item Quantity</t>
-  </si>
-  <si>
-    <t>Item Charges</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>test-11</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>testing purpose</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -109,26 +79,103 @@
   </si>
   <si>
     <t>http://images.all-free-download.com/images/graphiclarge/hd_pictures_of_beautiful_flowers_05_166896.jpg</t>
+  </si>
+  <si>
+    <t>Sku code</t>
+  </si>
+  <si>
+    <t>Other Unique code</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Special price</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Meta keywords</t>
+  </si>
+  <si>
+    <t>Meta title</t>
+  </si>
+  <si>
+    <t>Product description</t>
+  </si>
+  <si>
+    <t>skuid</t>
+  </si>
+  <si>
+    <t>otherunique</t>
+  </si>
+  <si>
+    <t>prodctname</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>10,25,56,xl,</t>
+  </si>
+  <si>
+    <t>balack,green,red</t>
+  </si>
+  <si>
+    <t>55gm</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>metakeyword</t>
+  </si>
+  <si>
+    <t>meta tile</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Product specifications name</t>
+  </si>
+  <si>
+    <t>Product specifications value</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>4gb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,20 +195,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -454,156 +495,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48" customWidth="1"/>
-    <col min="10" max="20" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" customWidth="1"/>
+    <col min="17" max="17" width="48" customWidth="1"/>
+    <col min="18" max="28" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="R2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U2" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V2" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" t="s">
-        <v>14</v>
+      <c r="W2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="vasudevareddy.reddem@ebcdata.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/uploads/Importproduct.xlsx
+++ b/uploads/Importproduct.xlsx
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,7 +509,7 @@
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>

--- a/uploads/Importproduct.xlsx
+++ b/uploads/Importproduct.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>sno</t>
   </si>
@@ -126,9 +126,6 @@
     <t>prodctname</t>
   </si>
   <si>
-    <t>555</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -159,20 +156,57 @@
     <t>Product specifications value</t>
   </si>
   <si>
-    <t>ram</t>
-  </si>
-  <si>
-    <t>4gb</t>
+    <t>ram,hardisk</t>
+  </si>
+  <si>
+    <t>4gb,500gb</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>Sleeve / Fitting type</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Season</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>fullhands</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>wintor</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>Gender (0=male,1=female,2=both)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,9 +232,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -512,103 +548,120 @@
     <col min="7" max="7" width="16.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="33.28515625" customWidth="1"/>
-    <col min="17" max="17" width="48" customWidth="1"/>
-    <col min="18" max="28" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="13.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="48" customWidth="1"/>
+    <col min="23" max="33" width="48.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33" s="3" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,79 +675,106 @@
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" t="s">
+      <c r="X2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Y2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" t="s">
+      <c r="Z2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AA2" t="s">
         <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>4</v>
       </c>
       <c r="AB2" t="s">
         <v>4</v>
       </c>
+      <c r="AC2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="V1:XFD1 A1:R1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
